--- a/StructureDefinition-ext-R5-NutritionIntake.xlsx
+++ b/StructureDefinition-ext-R5-NutritionIntake.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -889,7 +889,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:concept.id</t>
@@ -922,7 +922,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-NutritionIntake.xlsx
+++ b/StructureDefinition-ext-R5-NutritionIntake.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="512">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -388,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.instantiatesCanonical</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -435,6 +438,9 @@
     <t>Extension.extension:instantiatesUri.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.instantiatesUri</t>
+  </si>
+  <si>
     <t>Extension.extension:instantiatesUri.value[x]</t>
   </si>
   <si>
@@ -460,6 +466,9 @@
   </si>
   <si>
     <t>Extension.extension:basedOn.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.basedOn</t>
   </si>
   <si>
     <t>Extension.extension:basedOn.value[x]</t>
@@ -493,6 +502,9 @@
     <t>Extension.extension:partOf.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.partOf</t>
+  </si>
+  <si>
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
@@ -528,6 +540,9 @@
     <t>Extension.extension:status.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.status</t>
+  </si>
+  <si>
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
@@ -571,6 +586,9 @@
     <t>Extension.extension:statusReason.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.statusReason</t>
+  </si>
+  <si>
     <t>Extension.extension:statusReason.value[x]</t>
   </si>
   <si>
@@ -602,6 +620,9 @@
     <t>Extension.extension:code.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.code</t>
+  </si>
+  <si>
     <t>Extension.extension:code.value[x]</t>
   </si>
   <si>
@@ -636,6 +657,9 @@
   </si>
   <si>
     <t>Extension.extension:encounter.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.encounter</t>
   </si>
   <si>
     <t>Extension.extension:encounter.value[x]</t>
@@ -672,6 +696,9 @@
     <t>Extension.extension:occurrence.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.occurrence</t>
+  </si>
+  <si>
     <t>Extension.extension:occurrence.value[x]</t>
   </si>
   <si>
@@ -703,6 +730,9 @@
     <t>Extension.extension:recorded.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.recorded</t>
+  </si>
+  <si>
     <t>Extension.extension:recorded.value[x]</t>
   </si>
   <si>
@@ -734,6 +764,9 @@
     <t>Extension.extension:reported.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.reported</t>
+  </si>
+  <si>
     <t>Extension.extension:reported.value[x]</t>
   </si>
   <si>
@@ -795,6 +828,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.type</t>
+  </si>
+  <si>
     <t>Extension.extension:consumedItem.extension:type.value[x]</t>
   </si>
   <si>
@@ -888,8 +924,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:concept.id</t>
@@ -922,8 +958,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:reference.id</t>
@@ -945,6 +981,9 @@
     <t>Extension.extension:consumedItem.extension:nutritionProduct.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.nutritionProduct</t>
+  </si>
+  <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.value[x]</t>
   </si>
   <si>
@@ -976,6 +1015,9 @@
     <t>Extension.extension:consumedItem.extension:schedule.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.schedule</t>
+  </si>
+  <si>
     <t>Extension.extension:consumedItem.extension:schedule.value[x]</t>
   </si>
   <si>
@@ -1007,6 +1049,9 @@
     <t>Extension.extension:consumedItem.extension:amount.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.amount</t>
+  </si>
+  <si>
     <t>Extension.extension:consumedItem.extension:amount.value[x]</t>
   </si>
   <si>
@@ -1038,6 +1083,9 @@
     <t>Extension.extension:consumedItem.extension:rate.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.rate</t>
+  </si>
+  <si>
     <t>Extension.extension:consumedItem.extension:rate.value[x]</t>
   </si>
   <si>
@@ -1063,6 +1111,9 @@
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:notConsumed.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.notConsumed</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:notConsumed.value[x]</t>
@@ -1096,6 +1147,9 @@
     <t>Extension.extension:consumedItem.extension:notConsumedReason.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.consumedItem.notConsumedReason</t>
+  </si>
+  <si>
     <t>Extension.extension:consumedItem.extension:notConsumedReason.value[x]</t>
   </si>
   <si>
@@ -1208,6 +1262,9 @@
     <t>Extension.extension:ingredientLabel.extension:nutrient.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel.nutrient</t>
+  </si>
+  <si>
     <t>Extension.extension:ingredientLabel.extension:nutrient.value[x]</t>
   </si>
   <si>
@@ -1232,6 +1289,9 @@
     <t>Extension.extension:ingredientLabel.extension:amount.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.ingredientLabel.amount</t>
+  </si>
+  <si>
     <t>Extension.extension:ingredientLabel.extension:amount.value[x]</t>
   </si>
   <si>
@@ -1289,6 +1349,9 @@
     <t>Extension.extension:performer.extension:function.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer.function</t>
+  </si>
+  <si>
     <t>Extension.extension:performer.extension:function.value[x]</t>
   </si>
   <si>
@@ -1320,6 +1383,9 @@
   </si>
   <si>
     <t>Extension.extension:performer.extension:actor.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.performer.actor</t>
   </si>
   <si>
     <t>Extension.extension:performer.extension:actor.value[x]</t>
@@ -1362,6 +1428,9 @@
     <t>Extension.extension:location.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.location</t>
+  </si>
+  <si>
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
@@ -1396,6 +1465,9 @@
     <t>Extension.extension:derivedFrom.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.derivedFrom</t>
+  </si>
+  <si>
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
@@ -1479,6 +1551,9 @@
     <t>Extension.extension:reason.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.reason</t>
+  </si>
+  <si>
     <t>Extension.extension:reason.value[x]</t>
   </si>
   <si>
@@ -1504,6 +1579,9 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionIntake.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -2656,7 +2734,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2698,7 +2776,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2713,15 +2791,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2744,7 +2822,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -2801,7 +2879,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2813,21 +2891,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2852,14 +2930,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2928,7 +3006,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -3031,7 +3109,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -3136,7 +3214,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -3179,7 +3257,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3221,7 +3299,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -3236,15 +3314,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3270,10 +3348,10 @@
         <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3324,7 +3402,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3336,21 +3414,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3375,14 +3453,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3451,7 +3529,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3554,7 +3632,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3659,7 +3737,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3702,7 +3780,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3744,7 +3822,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3759,15 +3837,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3790,13 +3868,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3847,7 +3925,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3859,21 +3937,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3898,14 +3976,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3974,7 +4052,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -4077,7 +4155,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -4182,7 +4260,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -4225,7 +4303,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4267,7 +4345,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4282,15 +4360,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4313,13 +4391,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4370,7 +4448,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4382,21 +4460,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4421,16 +4499,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4499,7 +4577,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4602,7 +4680,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4707,7 +4785,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4750,7 +4828,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4792,7 +4870,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4807,15 +4885,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4838,16 +4916,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4873,13 +4951,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4897,7 +4975,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4909,21 +4987,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4948,16 +5026,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5026,7 +5104,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -5129,7 +5207,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -5234,7 +5312,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -5277,7 +5355,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5319,7 +5397,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5334,15 +5412,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5365,16 +5443,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5424,7 +5502,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5436,21 +5514,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5475,14 +5553,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5551,7 +5629,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5654,7 +5732,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5759,7 +5837,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5802,7 +5880,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5844,7 +5922,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5859,15 +5937,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5890,13 +5968,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5923,13 +6001,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5947,7 +6025,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5959,21 +6037,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5998,14 +6076,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6074,7 +6152,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6177,7 +6255,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6282,7 +6360,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6325,7 +6403,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6367,7 +6445,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6382,15 +6460,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6413,13 +6491,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6470,7 +6548,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6482,21 +6560,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6521,16 +6599,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6599,7 +6677,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6702,7 +6780,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6807,7 +6885,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6850,7 +6928,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6892,7 +6970,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -6907,15 +6985,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6938,16 +7016,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6997,7 +7075,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7009,21 +7087,21 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7048,14 +7126,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7124,7 +7202,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7227,7 +7305,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7332,7 +7410,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7375,7 +7453,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7417,7 +7495,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7432,15 +7510,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7463,13 +7541,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7520,7 +7598,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7532,21 +7610,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7571,14 +7649,14 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7647,7 +7725,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7750,7 +7828,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7855,7 +7933,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7898,7 +7976,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7940,7 +8018,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -7955,15 +8033,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7986,13 +8064,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8043,7 +8121,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8055,21 +8133,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8094,14 +8172,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8170,7 +8248,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8273,7 +8351,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8376,13 +8454,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8407,14 +8485,14 @@
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8483,10 +8561,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8586,10 +8664,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8691,10 +8769,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8734,7 +8812,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8776,7 +8854,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
@@ -8791,15 +8869,15 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8822,13 +8900,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8879,7 +8957,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -8891,21 +8969,21 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8930,16 +9008,16 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9008,10 +9086,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9111,10 +9189,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9214,13 +9292,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9245,10 +9323,10 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9319,10 +9397,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9422,10 +9500,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9527,10 +9605,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9570,7 +9648,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9612,7 +9690,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -9627,15 +9705,15 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9661,13 +9739,13 @@
         <v>87</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9675,7 +9753,7 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>77</v>
@@ -9717,7 +9795,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9729,21 +9807,21 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9768,14 +9846,14 @@
         <v>94</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9844,10 +9922,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9947,10 +10025,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10052,10 +10130,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10095,7 +10173,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -10137,7 +10215,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>86</v>
@@ -10152,15 +10230,15 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10183,13 +10261,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10216,11 +10294,11 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -10238,7 +10316,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10250,21 +10328,21 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10289,14 +10367,14 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10365,10 +10443,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10468,10 +10546,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10573,10 +10651,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10616,7 +10694,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10658,7 +10736,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>86</v>
@@ -10673,15 +10751,15 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10704,13 +10782,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10761,7 +10839,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -10773,18 +10851,18 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10824,7 +10902,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10866,7 +10944,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>86</v>
@@ -10881,15 +10959,15 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10912,13 +10990,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10969,7 +11047,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10981,21 +11059,21 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -11020,14 +11098,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11096,10 +11174,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11199,10 +11277,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11304,10 +11382,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11347,7 +11425,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11389,7 +11467,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -11404,15 +11482,15 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11435,13 +11513,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11492,7 +11570,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11504,21 +11582,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11543,14 +11621,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11619,10 +11697,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11722,10 +11800,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11827,10 +11905,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11870,7 +11948,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11912,7 +11990,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>86</v>
@@ -11927,15 +12005,15 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11958,13 +12036,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12015,7 +12093,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -12027,21 +12105,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12066,14 +12144,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12142,10 +12220,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12245,10 +12323,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12350,10 +12428,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12393,7 +12471,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12435,7 +12513,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>86</v>
@@ -12450,15 +12528,15 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12481,13 +12559,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12538,7 +12616,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -12550,21 +12628,21 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12589,14 +12667,14 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12665,10 +12743,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12768,10 +12846,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12873,10 +12951,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12916,7 +12994,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12958,7 +13036,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>86</v>
@@ -12973,15 +13051,15 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13004,13 +13082,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13061,7 +13139,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -13073,21 +13151,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13112,14 +13190,14 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13188,10 +13266,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13291,10 +13369,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13396,10 +13474,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13439,7 +13517,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13481,7 +13559,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>86</v>
@@ -13496,15 +13574,15 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13527,13 +13605,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13584,7 +13662,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13596,15 +13674,15 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -13647,7 +13725,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13689,7 +13767,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>86</v>
@@ -13704,15 +13782,15 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13735,13 +13813,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13792,7 +13870,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -13804,21 +13882,21 @@
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13843,16 +13921,16 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13921,7 +13999,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>106</v>
@@ -14024,7 +14102,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>108</v>
@@ -14127,13 +14205,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14158,14 +14236,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14234,10 +14312,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14337,10 +14415,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14440,13 +14518,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -14471,10 +14549,10 @@
         <v>94</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -14545,10 +14623,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14648,10 +14726,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14753,10 +14831,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14796,7 +14874,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -14838,7 +14916,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>86</v>
@@ -14853,15 +14931,15 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14887,13 +14965,13 @@
         <v>87</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -14901,7 +14979,7 @@
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>77</v>
@@ -14943,7 +15021,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -14955,21 +15033,21 @@
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -14994,14 +15072,14 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15070,10 +15148,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15173,10 +15251,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15278,10 +15356,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15321,7 +15399,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15363,7 +15441,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>86</v>
@@ -15378,15 +15456,15 @@
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15409,13 +15487,13 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -15442,11 +15520,11 @@
         <v>77</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -15464,7 +15542,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -15476,21 +15554,21 @@
         <v>77</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15515,14 +15593,14 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15591,10 +15669,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15694,10 +15772,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15799,10 +15877,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15842,7 +15920,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15884,7 +15962,7 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>86</v>
@@ -15899,15 +15977,15 @@
         <v>77</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15930,13 +16008,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -15987,7 +16065,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -15999,18 +16077,18 @@
         <v>77</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16050,7 +16128,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16092,7 +16170,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>86</v>
@@ -16107,15 +16185,15 @@
         <v>77</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16138,13 +16216,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16195,7 +16273,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -16207,21 +16285,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16246,14 +16324,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16322,10 +16400,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16425,10 +16503,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16530,10 +16608,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16573,7 +16651,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16615,7 +16693,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>86</v>
@@ -16630,15 +16708,15 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16661,13 +16739,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16718,7 +16796,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16730,15 +16808,15 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>114</v>
@@ -16781,7 +16859,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -16823,7 +16901,7 @@
         <v>77</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>86</v>
@@ -16838,15 +16916,15 @@
         <v>77</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16869,13 +16947,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -16926,7 +17004,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -16938,21 +17016,21 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -16977,14 +17055,14 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17053,7 +17131,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>106</v>
@@ -17156,7 +17234,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>108</v>
@@ -17259,13 +17337,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17290,14 +17368,14 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17366,10 +17444,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17469,10 +17547,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17574,10 +17652,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17617,7 +17695,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17659,7 +17737,7 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>86</v>
@@ -17674,15 +17752,15 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17705,13 +17783,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17738,13 +17816,13 @@
         <v>77</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>77</v>
@@ -17762,7 +17840,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -17774,21 +17852,21 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -17813,14 +17891,14 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -17889,10 +17967,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17992,10 +18070,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18097,10 +18175,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18140,7 +18218,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18182,7 +18260,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>86</v>
@@ -18197,15 +18275,15 @@
         <v>77</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18228,13 +18306,13 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -18285,7 +18363,7 @@
         <v>77</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>78</v>
@@ -18297,15 +18375,15 @@
         <v>77</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>114</v>
@@ -18348,7 +18426,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>77</v>
@@ -18390,7 +18468,7 @@
         <v>77</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>86</v>
@@ -18405,15 +18483,15 @@
         <v>77</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18436,13 +18514,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -18493,7 +18571,7 @@
         <v>77</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>78</v>
@@ -18505,21 +18583,21 @@
         <v>77</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>77</v>
@@ -18544,14 +18622,14 @@
         <v>94</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>77</v>
@@ -18620,7 +18698,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>106</v>
@@ -18723,7 +18801,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>108</v>
@@ -18828,7 +18906,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>114</v>
@@ -18871,7 +18949,7 @@
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>77</v>
@@ -18913,7 +18991,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>86</v>
@@ -18928,15 +19006,15 @@
         <v>77</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -18959,13 +19037,13 @@
         <v>77</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -19016,7 +19094,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -19028,21 +19106,21 @@
         <v>77</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>77</v>
@@ -19067,16 +19145,16 @@
         <v>94</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>77</v>
@@ -19145,7 +19223,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>106</v>
@@ -19248,7 +19326,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>108</v>
@@ -19353,7 +19431,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>114</v>
@@ -19396,7 +19474,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>77</v>
@@ -19438,7 +19516,7 @@
         <v>77</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>86</v>
@@ -19453,15 +19531,15 @@
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19484,16 +19562,16 @@
         <v>77</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -19543,7 +19621,7 @@
         <v>77</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>78</v>
@@ -19555,21 +19633,21 @@
         <v>77</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>77</v>
@@ -19594,14 +19672,14 @@
         <v>94</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -19670,7 +19748,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>106</v>
@@ -19773,7 +19851,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>108</v>
@@ -19876,13 +19954,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -19907,10 +19985,10 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -19981,10 +20059,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20084,10 +20162,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20189,10 +20267,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20232,7 +20310,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20274,7 +20352,7 @@
         <v>77</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>86</v>
@@ -20289,15 +20367,15 @@
         <v>77</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20323,13 +20401,13 @@
         <v>87</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -20337,7 +20415,7 @@
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>77</v>
@@ -20379,7 +20457,7 @@
         <v>77</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>78</v>
@@ -20391,21 +20469,21 @@
         <v>77</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20430,14 +20508,14 @@
         <v>94</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -20506,10 +20584,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20609,10 +20687,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20714,10 +20792,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20757,7 +20835,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -20799,7 +20877,7 @@
         <v>77</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>86</v>
@@ -20814,15 +20892,15 @@
         <v>77</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -20845,13 +20923,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -20878,11 +20956,11 @@
         <v>77</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="Y182" s="2"/>
       <c r="Z182" t="s" s="2">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>77</v>
@@ -20900,7 +20978,7 @@
         <v>77</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>78</v>
@@ -20912,21 +20990,21 @@
         <v>77</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -20951,14 +21029,14 @@
         <v>94</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21027,10 +21105,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21130,10 +21208,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21235,10 +21313,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21278,7 +21356,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21320,7 +21398,7 @@
         <v>77</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>86</v>
@@ -21335,15 +21413,15 @@
         <v>77</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21366,13 +21444,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21423,7 +21501,7 @@
         <v>77</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>78</v>
@@ -21435,15 +21513,15 @@
         <v>77</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>114</v>
@@ -21486,7 +21564,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>77</v>
@@ -21528,7 +21606,7 @@
         <v>77</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>86</v>
@@ -21543,15 +21621,15 @@
         <v>77</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21574,13 +21652,13 @@
         <v>77</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -21631,7 +21709,7 @@
         <v>77</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>78</v>
@@ -21643,21 +21721,21 @@
         <v>77</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>77</v>
@@ -21682,14 +21760,14 @@
         <v>94</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>77</v>
@@ -21758,7 +21836,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>106</v>
@@ -21861,7 +21939,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>108</v>
@@ -21966,7 +22044,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>114</v>
@@ -22009,7 +22087,7 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>77</v>
@@ -22051,7 +22129,7 @@
         <v>77</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>86</v>
@@ -22066,15 +22144,15 @@
         <v>77</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22097,13 +22175,13 @@
         <v>77</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -22154,7 +22232,7 @@
         <v>77</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>78</v>
@@ -22166,18 +22244,18 @@
         <v>77</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22259,7 +22337,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>86</v>
@@ -22274,15 +22352,15 @@
         <v>77</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22305,13 +22383,13 @@
         <v>77</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -22362,7 +22440,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -22374,10 +22452,10 @@
         <v>77</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-NutritionIntake.xlsx
+++ b/StructureDefinition-ext-R5-NutritionIntake.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItemDefinition|0.0.1-snapshot-3|ChargeItemDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-EventDefinition|0.0.1-snapshot-3|EventDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Measure|0.0.1-snapshot-3|Measure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MessageDefinition|0.0.1-snapshot-3|MessageDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|0.0.1-snapshot-3|ObservationDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-OperationDefinition|0.0.1-snapshot-3|OperationDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|0.0.1-snapshot-3|Questionnaire|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-TestPlan|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-TestScript|0.0.1-snapshot-3|TestScript|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItemDefinition|ChargeItemDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-EventDefinition|EventDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Measure|Measure|http://hl7.org/fhir/5.0/StructureDefinition/profile-MessageDefinition|MessageDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|ObservationDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-OperationDefinition|OperationDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|Questionnaire|http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-TestPlan|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-TestScript|TestScript)
 </t>
   </si>
   <si>
@@ -474,7 +474,7 @@
     <t>Extension.extension:basedOn.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|0.0.1-snapshot-3|NutritionOrder|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|0.0.1-snapshot-3|CarePlan|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|NutritionOrder|http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|CarePlan|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -508,7 +508,7 @@
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionIntake|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionIntake|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation)
 </t>
   </si>
   <si>
@@ -550,15 +550,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A coded concept indicating the current status of a NutritionIntake.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-event-status-for-R4-clinicalimpression-status</t>
-  </si>
-  <si>
     <t>Extension.extension:statusReason</t>
   </si>
   <si>
@@ -626,15 +617,6 @@
     <t>Extension.extension:code.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept identifying an overall type of diet or nutrition that is represented by this intake.  See consumedItem for more details.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-diet-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:encounter</t>
   </si>
   <si>
@@ -665,7 +647,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
 </t>
   </si>
   <si>
@@ -771,7 +753,7 @@
   </si>
   <si>
     <t>boolean
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem</t>
@@ -924,8 +906,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:concept.id</t>
@@ -943,7 +924,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-food-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-food-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:reference</t>
@@ -958,8 +939,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:reference.id</t>
@@ -974,7 +954,7 @@
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic)
 </t>
   </si>
   <si>
@@ -1055,7 +1035,7 @@
     <t>Extension.extension:consumedItem.extension:amount.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1237,7 +1217,7 @@
     <t>Extension.extension:ingredientLabel.extension:nutrient.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-nutrient-code-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-nutrient-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:ingredientLabel.extension:nutrient.extension:reference</t>
@@ -1255,7 +1235,7 @@
     <t>Extension.extension:ingredientLabel.extension:nutrient.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance)
 </t>
   </si>
   <si>
@@ -1355,12 +1335,6 @@
     <t>Extension.extension:performer.extension:function.value[x]</t>
   </si>
   <si>
-    <t>Type of performance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-performer-role-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:performer.extension:actor</t>
   </si>
   <si>
@@ -1391,7 +1365,7 @@
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1434,7 +1408,7 @@
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -1471,7 +1445,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -1526,7 +1500,7 @@
     <t>Extension.extension:reason.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-code-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-condition-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:reason.extension:reference</t>
@@ -1544,7 +1518,7 @@
     <t>Extension.extension:reason.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|0.0.1-snapshot-3|DiagnosticReport|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|DiagnosticReport|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
 </t>
   </si>
   <si>
@@ -1938,8 +1912,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.4140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4951,13 +4925,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4995,13 +4969,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5026,16 +5000,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5104,7 +5078,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -5207,7 +5181,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -5312,7 +5286,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -5355,7 +5329,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5417,7 +5391,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5443,16 +5417,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5522,13 +5496,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5553,14 +5527,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5629,7 +5603,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5732,7 +5706,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5837,7 +5811,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5880,7 +5854,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5942,7 +5916,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5968,13 +5942,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6001,13 +5975,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6045,13 +6019,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6076,14 +6050,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6152,7 +6126,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6255,7 +6229,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6360,7 +6334,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6403,7 +6377,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6465,7 +6439,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6491,13 +6465,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6568,13 +6542,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6599,16 +6573,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6677,7 +6651,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6780,7 +6754,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6885,7 +6859,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6928,7 +6902,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6990,7 +6964,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -7016,16 +6990,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7095,13 +7069,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7126,14 +7100,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7202,7 +7176,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7305,7 +7279,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7410,7 +7384,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7453,7 +7427,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7515,7 +7489,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7541,13 +7515,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7618,13 +7592,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7649,14 +7623,14 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7725,7 +7699,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7828,7 +7802,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7933,7 +7907,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7976,7 +7950,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8038,7 +8012,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -8064,13 +8038,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8141,13 +8115,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8172,14 +8146,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8248,7 +8222,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8351,7 +8325,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8454,13 +8428,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8485,14 +8459,14 @@
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8561,10 +8535,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8664,10 +8638,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8769,10 +8743,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8812,7 +8786,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8874,10 +8848,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8900,13 +8874,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8977,13 +8951,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -9008,16 +8982,16 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9086,10 +9060,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9189,10 +9163,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9292,13 +9266,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9323,10 +9297,10 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9397,10 +9371,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9500,10 +9474,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9605,10 +9579,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9648,7 +9622,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9710,10 +9684,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9739,13 +9713,13 @@
         <v>87</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9753,7 +9727,7 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>77</v>
@@ -9815,13 +9789,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9846,14 +9820,14 @@
         <v>94</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9922,10 +9896,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10025,10 +9999,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10130,10 +10104,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10173,7 +10147,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -10235,10 +10209,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10261,13 +10235,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10294,11 +10268,11 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -10336,13 +10310,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10367,14 +10341,14 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10443,10 +10417,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10546,10 +10520,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10651,10 +10625,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10694,7 +10668,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10756,10 +10730,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10782,13 +10756,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10859,10 +10833,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10902,7 +10876,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10964,10 +10938,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10990,13 +10964,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11067,13 +11041,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -11098,14 +11072,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11174,10 +11148,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11277,10 +11251,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11382,10 +11356,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11425,7 +11399,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11487,10 +11461,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11513,13 +11487,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11590,13 +11564,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11621,14 +11595,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11697,10 +11671,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11800,10 +11774,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11905,10 +11879,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11948,7 +11922,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -12010,10 +11984,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12036,13 +12010,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12113,13 +12087,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12144,14 +12118,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12220,10 +12194,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12323,10 +12297,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12428,10 +12402,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12471,7 +12445,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12533,10 +12507,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12559,13 +12533,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12636,13 +12610,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12667,14 +12641,14 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12743,10 +12717,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12846,10 +12820,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12951,10 +12925,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12994,7 +12968,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13056,10 +13030,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13082,13 +13056,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13159,13 +13133,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13190,14 +13164,14 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13266,10 +13240,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13369,10 +13343,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13474,10 +13448,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13517,7 +13491,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13579,10 +13553,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13605,13 +13579,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13682,7 +13656,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -13725,7 +13699,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13787,7 +13761,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>123</v>
@@ -13813,13 +13787,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13890,13 +13864,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13921,16 +13895,16 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13999,7 +13973,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>106</v>
@@ -14102,7 +14076,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>108</v>
@@ -14205,13 +14179,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14236,14 +14210,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14312,10 +14286,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14415,10 +14389,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14518,13 +14492,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -14549,10 +14523,10 @@
         <v>94</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -14623,10 +14597,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14726,10 +14700,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14831,10 +14805,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14874,7 +14848,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -14936,10 +14910,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14965,13 +14939,13 @@
         <v>87</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -14979,7 +14953,7 @@
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>77</v>
@@ -15041,13 +15015,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -15072,14 +15046,14 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15148,10 +15122,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15251,10 +15225,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15356,10 +15330,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15399,7 +15373,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15461,10 +15435,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15487,13 +15461,13 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -15520,11 +15494,11 @@
         <v>77</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -15562,13 +15536,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15593,14 +15567,14 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15669,10 +15643,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15772,10 +15746,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15877,10 +15851,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15920,7 +15894,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15982,10 +15956,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16008,13 +15982,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16085,10 +16059,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16128,7 +16102,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16190,10 +16164,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16216,13 +16190,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16293,13 +16267,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16324,14 +16298,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16400,10 +16374,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16503,10 +16477,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16608,10 +16582,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16651,7 +16625,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16713,10 +16687,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16739,13 +16713,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16816,7 +16790,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>114</v>
@@ -16859,7 +16833,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -16921,7 +16895,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>123</v>
@@ -16947,13 +16921,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17024,13 +16998,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17055,14 +17029,14 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17131,7 +17105,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>106</v>
@@ -17234,7 +17208,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>108</v>
@@ -17337,13 +17311,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17368,14 +17342,14 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17444,10 +17418,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17547,10 +17521,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17652,10 +17626,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17695,7 +17669,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17757,10 +17731,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17783,13 +17757,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17816,13 +17790,13 @@
         <v>77</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>77</v>
@@ -17860,13 +17834,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -17891,14 +17865,14 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -17967,10 +17941,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18070,10 +18044,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18175,10 +18149,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18218,7 +18192,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18280,10 +18254,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18306,13 +18280,13 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -18383,7 +18357,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>114</v>
@@ -18426,7 +18400,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>77</v>
@@ -18488,7 +18462,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>123</v>
@@ -18514,13 +18488,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -18591,13 +18565,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>77</v>
@@ -18622,14 +18596,14 @@
         <v>94</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>77</v>
@@ -18698,7 +18672,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>106</v>
@@ -18801,7 +18775,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>108</v>
@@ -18906,7 +18880,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>114</v>
@@ -18949,7 +18923,7 @@
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>77</v>
@@ -19011,7 +18985,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>123</v>
@@ -19037,13 +19011,13 @@
         <v>77</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -19114,13 +19088,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>77</v>
@@ -19145,16 +19119,16 @@
         <v>94</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>77</v>
@@ -19223,7 +19197,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>106</v>
@@ -19326,7 +19300,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>108</v>
@@ -19431,7 +19405,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>114</v>
@@ -19474,7 +19448,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>77</v>
@@ -19536,7 +19510,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>123</v>
@@ -19562,16 +19536,16 @@
         <v>77</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -19641,13 +19615,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>77</v>
@@ -19672,14 +19646,14 @@
         <v>94</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -19748,7 +19722,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>106</v>
@@ -19851,7 +19825,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>108</v>
@@ -19954,13 +19928,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -19985,10 +19959,10 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -20059,10 +20033,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20162,10 +20136,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20267,10 +20241,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20310,7 +20284,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20372,10 +20346,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20401,13 +20375,13 @@
         <v>87</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -20415,7 +20389,7 @@
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>77</v>
@@ -20477,13 +20451,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20508,14 +20482,14 @@
         <v>94</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -20584,10 +20558,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20687,10 +20661,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20792,10 +20766,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20835,7 +20809,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -20897,10 +20871,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -20923,13 +20897,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -20956,11 +20930,11 @@
         <v>77</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Y182" s="2"/>
       <c r="Z182" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>77</v>
@@ -20998,13 +20972,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21029,14 +21003,14 @@
         <v>94</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21105,10 +21079,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21208,10 +21182,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21313,10 +21287,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21356,7 +21330,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21418,10 +21392,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21444,13 +21418,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21521,7 +21495,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>114</v>
@@ -21564,7 +21538,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>77</v>
@@ -21626,7 +21600,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>123</v>
@@ -21652,13 +21626,13 @@
         <v>77</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -21729,13 +21703,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>77</v>
@@ -21760,14 +21734,14 @@
         <v>94</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>77</v>
@@ -21836,7 +21810,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>106</v>
@@ -21939,7 +21913,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>108</v>
@@ -22044,7 +22018,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>114</v>
@@ -22087,7 +22061,7 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>77</v>
@@ -22149,7 +22123,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>123</v>
@@ -22175,13 +22149,13 @@
         <v>77</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -22383,13 +22357,13 @@
         <v>77</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>

--- a/StructureDefinition-ext-R5-NutritionIntake.xlsx
+++ b/StructureDefinition-ext-R5-NutritionIntake.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6475" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItemDefinition|ChargeItemDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-EventDefinition|EventDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Measure|Measure|http://hl7.org/fhir/5.0/StructureDefinition/profile-MessageDefinition|MessageDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|ObservationDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-OperationDefinition|OperationDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|Questionnaire|http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-TestPlan|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-TestScript|TestScript)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItemDefinition|0.0.1-snapshot-3|ChargeItemDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-EventDefinition|0.0.1-snapshot-3|EventDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Measure|0.0.1-snapshot-3|Measure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MessageDefinition|0.0.1-snapshot-3|MessageDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|0.0.1-snapshot-3|ObservationDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-OperationDefinition|0.0.1-snapshot-3|OperationDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|0.0.1-snapshot-3|Questionnaire|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubscriptionTopic|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-TestPlan|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-TestScript|0.0.1-snapshot-3|TestScript|4.0.1)
 </t>
   </si>
   <si>
@@ -474,7 +474,7 @@
     <t>Extension.extension:basedOn.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|NutritionOrder|http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|CarePlan|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|0.0.1-snapshot-3|NutritionOrder|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|0.0.1-snapshot-3|CarePlan|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -508,7 +508,7 @@
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionIntake|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionIntake|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -550,6 +550,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A coded concept indicating the current status of a NutritionIntake.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinicalimpression-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:statusReason</t>
   </si>
   <si>
@@ -647,7 +656,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -753,7 +762,7 @@
   </si>
   <si>
     <t>boolean
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem</t>
@@ -906,7 +915,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:concept.id</t>
@@ -921,12 +930,6 @@
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-food-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:reference</t>
   </si>
   <si>
@@ -939,7 +942,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:reference.id</t>
@@ -954,7 +957,7 @@
     <t>Extension.extension:consumedItem.extension:nutritionProduct.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -1035,7 +1038,7 @@
     <t>Extension.extension:consumedItem.extension:amount.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1217,9 +1220,6 @@
     <t>Extension.extension:ingredientLabel.extension:nutrient.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-nutrient-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:ingredientLabel.extension:nutrient.extension:reference</t>
   </si>
   <si>
@@ -1235,7 +1235,7 @@
     <t>Extension.extension:ingredientLabel.extension:nutrient.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1)
 </t>
   </si>
   <si>
@@ -1365,7 +1365,7 @@
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1445,7 +1445,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1500,9 +1500,6 @@
     <t>Extension.extension:reason.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-condition-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:reason.extension:reference</t>
   </si>
   <si>
@@ -1518,7 +1515,7 @@
     <t>Extension.extension:reason.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|DiagnosticReport|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|0.0.1-snapshot-3|DiagnosticReport|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
 </t>
   </si>
   <si>
@@ -1912,8 +1909,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.4140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.13671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4925,13 +4922,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4969,13 +4966,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5000,16 +4997,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5078,7 +5075,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -5181,7 +5178,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -5286,7 +5283,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -5329,7 +5326,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5417,16 +5414,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5496,13 +5493,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5527,14 +5524,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5603,7 +5600,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5706,7 +5703,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5811,7 +5808,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5854,7 +5851,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5916,7 +5913,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5942,13 +5939,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6019,13 +6016,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6050,14 +6047,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6126,7 +6123,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6229,7 +6226,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6334,7 +6331,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6377,7 +6374,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6439,7 +6436,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6465,13 +6462,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6542,13 +6539,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6573,16 +6570,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6651,7 +6648,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6754,7 +6751,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6859,7 +6856,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6902,7 +6899,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6964,7 +6961,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6990,16 +6987,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7069,13 +7066,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7100,14 +7097,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7176,7 +7173,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7279,7 +7276,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7384,7 +7381,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7427,7 +7424,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7489,7 +7486,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7515,13 +7512,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7592,13 +7589,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7623,14 +7620,14 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7699,7 +7696,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7802,7 +7799,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7907,7 +7904,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7950,7 +7947,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8012,7 +8009,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -8038,13 +8035,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8115,13 +8112,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8146,14 +8143,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8222,7 +8219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8325,7 +8322,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8428,13 +8425,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8459,14 +8456,14 @@
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8535,10 +8532,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8638,10 +8635,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8743,10 +8740,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8786,7 +8783,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8848,10 +8845,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8874,13 +8871,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8951,13 +8948,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8982,16 +8979,16 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9060,10 +9057,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9163,10 +9160,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9266,13 +9263,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9297,10 +9294,10 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9371,10 +9368,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9474,10 +9471,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9579,10 +9576,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9622,7 +9619,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9684,10 +9681,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9713,13 +9710,13 @@
         <v>87</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9727,7 +9724,7 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>77</v>
@@ -9789,13 +9786,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9820,14 +9817,14 @@
         <v>94</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9896,10 +9893,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9999,10 +9996,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10104,10 +10101,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10147,7 +10144,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -10209,10 +10206,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10235,13 +10232,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10268,11 +10265,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y80" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z80" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -10310,13 +10309,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10341,14 +10340,14 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10417,10 +10416,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10520,10 +10519,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10625,10 +10624,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10668,7 +10667,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10730,10 +10729,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10756,13 +10755,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10833,10 +10832,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10876,7 +10875,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10938,10 +10937,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10964,13 +10963,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11041,13 +11040,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -11072,14 +11071,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11148,10 +11147,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11251,10 +11250,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11356,10 +11355,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11399,7 +11398,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11461,10 +11460,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11487,13 +11486,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11564,13 +11563,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11595,14 +11594,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11671,10 +11670,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11774,10 +11773,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11879,10 +11878,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11922,7 +11921,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11984,10 +11983,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12010,13 +12009,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12087,13 +12086,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12118,14 +12117,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12194,10 +12193,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12297,10 +12296,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12402,10 +12401,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12445,7 +12444,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12507,10 +12506,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12533,13 +12532,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12610,13 +12609,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12641,14 +12640,14 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12717,10 +12716,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12820,10 +12819,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12925,10 +12924,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12968,7 +12967,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13030,10 +13029,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13056,13 +13055,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13133,13 +13132,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13164,14 +13163,14 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13240,10 +13239,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13343,10 +13342,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13448,10 +13447,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13491,7 +13490,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13553,10 +13552,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13579,13 +13578,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13656,7 +13655,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -13699,7 +13698,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13761,7 +13760,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>123</v>
@@ -13787,13 +13786,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13864,13 +13863,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13895,16 +13894,16 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13973,7 +13972,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>106</v>
@@ -14076,7 +14075,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>108</v>
@@ -14179,13 +14178,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14210,14 +14209,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14286,10 +14285,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14389,10 +14388,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14492,13 +14491,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -14523,10 +14522,10 @@
         <v>94</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -14597,10 +14596,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14700,10 +14699,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14805,10 +14804,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14848,7 +14847,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -14910,10 +14909,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14939,13 +14938,13 @@
         <v>87</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -14953,7 +14952,7 @@
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>77</v>
@@ -15015,13 +15014,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -15046,14 +15045,14 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15122,10 +15121,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15225,10 +15224,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15330,10 +15329,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15373,7 +15372,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15435,10 +15434,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15461,13 +15460,13 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -15494,11 +15493,13 @@
         <v>77</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y130" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z130" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -15539,10 +15540,10 @@
         <v>391</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15567,14 +15568,14 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15646,7 +15647,7 @@
         <v>392</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15749,7 +15750,7 @@
         <v>393</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15854,7 +15855,7 @@
         <v>394</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15894,7 +15895,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15959,7 +15960,7 @@
         <v>395</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15985,10 +15986,10 @@
         <v>396</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16062,7 +16063,7 @@
         <v>397</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16167,7 +16168,7 @@
         <v>399</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16190,13 +16191,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16273,7 +16274,7 @@
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16377,7 +16378,7 @@
         <v>404</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16480,7 +16481,7 @@
         <v>405</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16585,7 +16586,7 @@
         <v>406</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16690,7 +16691,7 @@
         <v>408</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16713,7 +16714,7 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L142" t="s" s="2">
         <v>401</v>
@@ -16921,13 +16922,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17421,7 +17422,7 @@
         <v>424</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17524,7 +17525,7 @@
         <v>425</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17629,7 +17630,7 @@
         <v>426</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17734,7 +17735,7 @@
         <v>428</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17757,7 +17758,7 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L152" t="s" s="2">
         <v>421</v>
@@ -17944,7 +17945,7 @@
         <v>434</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18047,7 +18048,7 @@
         <v>435</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18152,7 +18153,7 @@
         <v>436</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18257,7 +18258,7 @@
         <v>438</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18488,13 +18489,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -19934,7 +19935,7 @@
         <v>108</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -19959,10 +19960,10 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -20036,7 +20037,7 @@
         <v>474</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20139,7 +20140,7 @@
         <v>475</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20244,7 +20245,7 @@
         <v>476</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20284,7 +20285,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20349,7 +20350,7 @@
         <v>477</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20375,13 +20376,13 @@
         <v>87</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -20389,7 +20390,7 @@
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>77</v>
@@ -20457,7 +20458,7 @@
         <v>108</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20482,14 +20483,14 @@
         <v>94</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -20561,7 +20562,7 @@
         <v>479</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20664,7 +20665,7 @@
         <v>480</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20769,7 +20770,7 @@
         <v>481</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20809,7 +20810,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -20874,7 +20875,7 @@
         <v>482</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -20897,13 +20898,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -20930,11 +20931,13 @@
         <v>77</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y182" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z182" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>77</v>
@@ -20972,13 +20975,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21003,14 +21006,14 @@
         <v>94</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21079,10 +21082,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21182,10 +21185,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21287,10 +21290,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21330,7 +21333,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21392,10 +21395,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21418,13 +21421,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21495,7 +21498,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>114</v>
@@ -21538,7 +21541,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>77</v>
@@ -21600,7 +21603,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>123</v>
@@ -21626,13 +21629,13 @@
         <v>77</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -21703,13 +21706,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>77</v>
@@ -21734,14 +21737,14 @@
         <v>94</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>77</v>
@@ -21810,7 +21813,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>106</v>
@@ -21913,7 +21916,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>108</v>
@@ -22018,7 +22021,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>114</v>
@@ -22061,7 +22064,7 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>77</v>
@@ -22123,7 +22126,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>123</v>
@@ -22149,13 +22152,13 @@
         <v>77</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -22357,13 +22360,13 @@
         <v>77</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
